--- a/teaching/traditional_assets/database/data/sweden/sweden_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/sweden/sweden_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0238</v>
+        <v>0.0207</v>
       </c>
       <c r="E2">
-        <v>0.015</v>
+        <v>-0.004359999999999999</v>
       </c>
       <c r="F2">
-        <v>0.007229999999999999</v>
+        <v>0.0177</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,34 +606,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.004090983357533942</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.003205293396075997</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5719.5</v>
+        <v>5002</v>
       </c>
       <c r="L2">
-        <v>0.4141234224645394</v>
+        <v>0.3441324793087079</v>
       </c>
       <c r="M2">
-        <v>4141.41</v>
+        <v>2316.337</v>
       </c>
       <c r="N2">
-        <v>0.06968867843566845</v>
+        <v>0.03695366467673438</v>
       </c>
       <c r="O2">
-        <v>0.7240860215053763</v>
+        <v>0.4630821671331468</v>
       </c>
       <c r="P2">
-        <v>4141.41</v>
+        <v>2316.337</v>
       </c>
       <c r="Q2">
-        <v>0.06968867843566845</v>
+        <v>0.03695366467673438</v>
       </c>
       <c r="R2">
-        <v>0.7240860215053763</v>
+        <v>0.4630821671331468</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,67 +642,61 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>81260.5</v>
+        <v>143797.6</v>
       </c>
       <c r="V2">
-        <v>1.367393437023052</v>
+        <v>2.29407391572089</v>
       </c>
       <c r="W2">
-        <v>0.1343946587931745</v>
+        <v>0.109967914708706</v>
       </c>
       <c r="X2">
-        <v>0.1278680437292488</v>
+        <v>0.1222614481757316</v>
       </c>
       <c r="Y2">
-        <v>0.006526615063925739</v>
+        <v>-0.01229353346702566</v>
       </c>
       <c r="Z2">
-        <v>0.04003299837219376</v>
+        <v>0.04186653105095532</v>
       </c>
       <c r="AA2">
-        <v>-0.000280416338742797</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03932158450849496</v>
+        <v>0.03308889522654206</v>
       </c>
       <c r="AC2">
-        <v>-0.03960200084723776</v>
+        <v>-0.03308889522654206</v>
       </c>
       <c r="AD2">
-        <v>385784.9</v>
+        <v>407922.6</v>
       </c>
       <c r="AE2">
-        <v>1790.264901246185</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>387575.1649012462</v>
+        <v>407922.6</v>
       </c>
       <c r="AG2">
-        <v>306314.6649012462</v>
+        <v>264125</v>
       </c>
       <c r="AH2">
-        <v>0.8670537532424369</v>
+        <v>0.866805013463526</v>
       </c>
       <c r="AI2">
-        <v>0.8963817173680386</v>
+        <v>0.88188135796584</v>
       </c>
       <c r="AJ2">
-        <v>0.8375157742261107</v>
+        <v>0.808198228190811</v>
       </c>
       <c r="AK2">
-        <v>0.8724008884830955</v>
+        <v>0.8285965167104349</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1279.331259616915</v>
-      </c>
-      <c r="AP2">
-        <v>1015.793842857106</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Svenska Handelsbanken AB (publ) (OM:SHB A)</t>
+          <t>TF Bank AB (publ) (OM:TFBANK)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,13 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.033</v>
+        <v>0.176</v>
       </c>
       <c r="E3">
-        <v>0.015</v>
-      </c>
-      <c r="F3">
-        <v>0.007229999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,34 +728,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-8.478088904832819e-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-6.56412148266401e-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1684.9</v>
+        <v>22.5</v>
       </c>
       <c r="L3">
-        <v>0.3841278526320589</v>
+        <v>0.3429878048780488</v>
       </c>
       <c r="M3">
-        <v>1088.2</v>
+        <v>0.777</v>
       </c>
       <c r="N3">
-        <v>0.05074849601268479</v>
+        <v>0.003419894366197183</v>
       </c>
       <c r="O3">
-        <v>0.6458543533740875</v>
+        <v>0.03453333333333333</v>
       </c>
       <c r="P3">
-        <v>1088.2</v>
+        <v>0.777</v>
       </c>
       <c r="Q3">
-        <v>0.05074849601268479</v>
+        <v>0.003419894366197183</v>
       </c>
       <c r="R3">
-        <v>0.6458543533740875</v>
+        <v>0.03453333333333333</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,67 +764,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>31954.6</v>
+        <v>272.6</v>
       </c>
       <c r="V3">
-        <v>1.490211257753113</v>
+        <v>1.199823943661972</v>
       </c>
       <c r="W3">
-        <v>0.1060786350615419</v>
+        <v>0.2625437572928822</v>
       </c>
       <c r="X3">
-        <v>0.1658673226835136</v>
+        <v>0.03372314166054328</v>
       </c>
       <c r="Y3">
-        <v>-0.05978868762197173</v>
+        <v>0.2288206156323389</v>
       </c>
       <c r="Z3">
-        <v>0.02824979936504094</v>
+        <v>-1.846846846846847</v>
       </c>
       <c r="AA3">
-        <v>-1.854351148930133e-06</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.03862251859542522</v>
+        <v>0.03201037324250773</v>
       </c>
       <c r="AC3">
-        <v>-0.03862437294657415</v>
+        <v>-0.03201037324250773</v>
       </c>
       <c r="AD3">
-        <v>163779.1</v>
+        <v>23</v>
       </c>
       <c r="AE3">
-        <v>445.3593720681635</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>164224.4593720682</v>
+        <v>23</v>
       </c>
       <c r="AG3">
-        <v>132269.8593720682</v>
+        <v>-249.6</v>
       </c>
       <c r="AH3">
-        <v>0.8845085720862409</v>
+        <v>0.09192645883293366</v>
       </c>
       <c r="AI3">
-        <v>0.9120639195200821</v>
+        <v>0.1671511627906977</v>
       </c>
       <c r="AJ3">
-        <v>0.8604996349193118</v>
+        <v>11.14285714285713</v>
       </c>
       <c r="AK3">
-        <v>0.8930909509667661</v>
+        <v>1.848888888888889</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>1846.438556933484</v>
-      </c>
-      <c r="AP3">
-        <v>1491.20472798273</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +829,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Swedbank AB (publ) (OM:SWED A)</t>
+          <t>Svenska Handelsbanken AB (publ) (OM:SHB A)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,13 +838,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0238</v>
+        <v>0.0314</v>
       </c>
       <c r="E4">
-        <v>0.0408</v>
+        <v>0.00538</v>
       </c>
       <c r="F4">
-        <v>-0.00739</v>
+        <v>0.0285</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -868,34 +853,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.00599257794655711</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.004782995207255598</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2021</v>
+        <v>1741.1</v>
       </c>
       <c r="L4">
-        <v>0.45296635811462</v>
+        <v>0.3594269317313845</v>
       </c>
       <c r="M4">
-        <v>1615.8</v>
+        <v>1215.72</v>
       </c>
       <c r="N4">
-        <v>0.09657810585457696</v>
+        <v>0.0609218557382964</v>
       </c>
       <c r="O4">
-        <v>0.7995051954477981</v>
+        <v>0.6982482338751365</v>
       </c>
       <c r="P4">
-        <v>1615.8</v>
+        <v>1215.72</v>
       </c>
       <c r="Q4">
-        <v>0.09657810585457696</v>
+        <v>0.0609218557382964</v>
       </c>
       <c r="R4">
-        <v>0.7995051954477981</v>
+        <v>0.6982482338751365</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,67 +889,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>21591.4</v>
+        <v>62260.6</v>
       </c>
       <c r="V4">
-        <v>1.290541227100206</v>
+        <v>3.119987572286198</v>
       </c>
       <c r="W4">
-        <v>0.1343946587931745</v>
+        <v>0.109967914708706</v>
       </c>
       <c r="X4">
-        <v>0.1517216056386684</v>
+        <v>0.1869536587154915</v>
       </c>
       <c r="Y4">
-        <v>-0.01732694684549391</v>
+        <v>-0.07698574400678551</v>
       </c>
       <c r="Z4">
-        <v>0.04192445021953836</v>
+        <v>0.03296739194792839</v>
       </c>
       <c r="AA4">
-        <v>-0.0002005244444668779</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03864373884441943</v>
+        <v>0.03249313453910679</v>
       </c>
       <c r="AC4">
-        <v>-0.03884426328888631</v>
+        <v>-0.03249313453910679</v>
       </c>
       <c r="AD4">
-        <v>113104.8</v>
+        <v>173981.9</v>
       </c>
       <c r="AE4">
-        <v>617.1854251207693</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>113721.9854251208</v>
+        <v>173981.9</v>
       </c>
       <c r="AG4">
-        <v>92130.58542512078</v>
+        <v>111721.3</v>
       </c>
       <c r="AH4">
-        <v>0.8717502395950651</v>
+        <v>0.8971038577932147</v>
       </c>
       <c r="AI4">
-        <v>0.8930916073624818</v>
+        <v>0.9029525988797032</v>
       </c>
       <c r="AJ4">
-        <v>0.8463133089784601</v>
+        <v>0.8484515483756807</v>
       </c>
       <c r="AK4">
-        <v>0.8712624108804978</v>
+        <v>0.8566237669691498</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>1169.64632885212</v>
-      </c>
-      <c r="AP4">
-        <v>952.7464883673297</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Skandinaviska Enskilda Banken AB (publ.) (OM:SEB A)</t>
+          <t>Collector AB (publ) (OM:COLL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,13 +963,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.00826</v>
-      </c>
-      <c r="E5">
-        <v>0.0129</v>
-      </c>
-      <c r="F5">
-        <v>0.035</v>
+        <v>-0.09359999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,103 +972,94 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.006173125535431776</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.004949192493557927</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1925.6</v>
+        <v>-32.7</v>
       </c>
       <c r="L5">
-        <v>0.4106369820655534</v>
+        <v>-0.4230271668822769</v>
       </c>
       <c r="M5">
-        <v>1431.7</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.07008277570281027</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.7435085168259244</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1431.7</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.07008277570281027</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.7435085168259244</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>27215.8</v>
+        <v>318.5</v>
       </c>
       <c r="V5">
-        <v>1.332233573355133</v>
+        <v>0.525230870712401</v>
       </c>
       <c r="W5">
-        <v>0.1177585753511781</v>
+        <v>-0.08116157855547283</v>
       </c>
       <c r="X5">
-        <v>0.1278680437292488</v>
+        <v>0.03609284565730439</v>
       </c>
       <c r="Y5">
-        <v>-0.01010946837807065</v>
+        <v>-0.1172544242127772</v>
       </c>
       <c r="Z5">
-        <v>0.05665900833475328</v>
+        <v>0.1745709123757904</v>
       </c>
       <c r="AA5">
-        <v>-0.000280416338742797</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03932158450849496</v>
+        <v>0.03308889522654206</v>
       </c>
       <c r="AC5">
-        <v>-0.03960200084723776</v>
+        <v>-0.03308889522654206</v>
       </c>
       <c r="AD5">
-        <v>108482.3</v>
+        <v>142.2</v>
       </c>
       <c r="AE5">
-        <v>704.7381878665011</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>109187.0381878665</v>
+        <v>142.2</v>
       </c>
       <c r="AG5">
-        <v>81971.2381878665</v>
+        <v>-176.3</v>
       </c>
       <c r="AH5">
-        <v>0.8423902815691223</v>
+        <v>0.1899545818861876</v>
       </c>
       <c r="AI5">
-        <v>0.8801584842744986</v>
+        <v>0.2144472930176444</v>
       </c>
       <c r="AJ5">
-        <v>0.8005008561380106</v>
+        <v>-0.4099046733317834</v>
       </c>
       <c r="AK5">
-        <v>0.846477682962161</v>
+        <v>-0.5116076610562973</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>968.5919642857143</v>
-      </c>
-      <c r="AP5">
-        <v>731.886055248808</v>
       </c>
     </row>
     <row r="6">
@@ -1106,7 +1070,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TF Bank AB (publ) (OM:TFBANK)</t>
+          <t>Skandinaviska Enskilda Banken AB (publ.) (OM:SEB A)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1114,6 +1078,15 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>-0.004759999999999999</v>
+      </c>
+      <c r="E6">
+        <v>-0.0141</v>
+      </c>
+      <c r="F6">
+        <v>0.0177</v>
+      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -1121,103 +1094,94 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002298971109586689</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.001765308307754763</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>23.4</v>
+        <v>1836.9</v>
       </c>
       <c r="L6">
-        <v>0.4148936170212766</v>
+        <v>0.3700965083714464</v>
       </c>
       <c r="M6">
-        <v>5.71</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.02125046520282843</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.244017094017094</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>5.71</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.02125046520282843</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.244017094017094</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>140</v>
+        <v>37574.7</v>
       </c>
       <c r="V6">
-        <v>0.5210271678451805</v>
+        <v>1.689570668009641</v>
       </c>
       <c r="W6">
-        <v>0.312</v>
+        <v>0.1235571878279119</v>
       </c>
       <c r="X6">
-        <v>0.04148482496679627</v>
+        <v>0.1222614481757316</v>
       </c>
       <c r="Y6">
-        <v>0.2705151750332037</v>
+        <v>0.001295739652180217</v>
       </c>
       <c r="Z6">
-        <v>-0.6083597046423088</v>
+        <v>0.05162935215996954</v>
       </c>
       <c r="AA6">
-        <v>-0.001073942440708302</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03997605955398887</v>
+        <v>0.03323145718573514</v>
       </c>
       <c r="AC6">
-        <v>-0.04105000199469717</v>
+        <v>-0.03323145718573514</v>
       </c>
       <c r="AD6">
-        <v>20.1</v>
+        <v>112984.2</v>
       </c>
       <c r="AE6">
-        <v>2.661690147096554</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>22.76169014709656</v>
+        <v>112984.2</v>
       </c>
       <c r="AG6">
-        <v>-117.2383098529034</v>
+        <v>75409.5</v>
       </c>
       <c r="AH6">
-        <v>0.07809496382049064</v>
+        <v>0.8355373404307243</v>
       </c>
       <c r="AI6">
-        <v>0.2098592610554656</v>
+        <v>0.8593614279868507</v>
       </c>
       <c r="AJ6">
-        <v>-0.7740459632996566</v>
+        <v>0.7722529844227317</v>
       </c>
       <c r="AK6">
-        <v>3.717330142284413</v>
+        <v>0.8030839223470952</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>30.36253776435045</v>
-      </c>
-      <c r="AP6">
-        <v>-177.0971447929055</v>
       </c>
     </row>
     <row r="7">
@@ -1228,7 +1192,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Collector AB (publ) (OM:COLL)</t>
+          <t>Swedbank AB (publ) (OM:SWED A)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1236,6 +1200,15 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.0207</v>
+      </c>
+      <c r="E7">
+        <v>-0.0394</v>
+      </c>
+      <c r="F7">
+        <v>0.00195</v>
+      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -1243,100 +1216,97 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-0.002640502340068803</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>-0.002047736508624786</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>64.59999999999999</v>
+        <v>1434.2</v>
       </c>
       <c r="L7">
-        <v>0.297148114075437</v>
+        <v>0.3128162624323853</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>1099.84</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.05596010990129235</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.7668665458095104</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>1099.84</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.05596010990129235</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.7668665458095104</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>358.7</v>
+        <v>43371.2</v>
       </c>
       <c r="V7">
-        <v>0.6446800862688713</v>
+        <v>2.206736542179709</v>
       </c>
       <c r="W7">
-        <v>0.1726811013098102</v>
+        <v>0.1053729786124152</v>
       </c>
       <c r="X7">
-        <v>0.05245831690704933</v>
+        <v>0.1412075401323166</v>
       </c>
       <c r="Y7">
-        <v>0.1202227844027609</v>
+        <v>-0.03583456151990133</v>
       </c>
       <c r="Z7">
-        <v>0.3443577300895269</v>
+        <v>0.04421197989593097</v>
       </c>
       <c r="AA7">
-        <v>-0.0007051538959314841</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0414724157536301</v>
+        <v>0.03326985726732402</v>
       </c>
       <c r="AC7">
-        <v>-0.04217756964956158</v>
+        <v>-0.03326985726732402</v>
       </c>
       <c r="AD7">
-        <v>398.6</v>
+        <v>120791.3</v>
       </c>
       <c r="AE7">
-        <v>20.32022604365479</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>418.9202260436548</v>
+        <v>120791.3</v>
       </c>
       <c r="AG7">
-        <v>60.2202260436548</v>
+        <v>77420.10000000001</v>
       </c>
       <c r="AH7">
-        <v>0.4295206998249047</v>
+        <v>0.8600593967900672</v>
       </c>
       <c r="AI7">
-        <v>0.5097467946978977</v>
+        <v>0.8778239734424588</v>
       </c>
       <c r="AJ7">
-        <v>0.09766177543354115</v>
+        <v>0.7975361090136298</v>
       </c>
       <c r="AK7">
-        <v>0.1300315180749163</v>
+        <v>0.8215912021300642</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>114.2120343839541</v>
-      </c>
-      <c r="AP7">
-        <v>17.25507909560309</v>
       </c>
     </row>
   </sheetData>
